--- a/data/case1/12/P1_14.xlsx
+++ b/data/case1/12/P1_14.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.052052365863332284</v>
+        <v>0.07655054299873143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999996573991723</v>
+        <v>-0.0099999998302813253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999996626506373</v>
+        <v>-0.008999999832026262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399281671918786</v>
+        <v>0.28399655374833088</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999996751409768</v>
+        <v>-0.0059999998385684705</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.005999999665419864</v>
+        <v>-0.0059999998332749271</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.015993386932073861</v>
+        <v>-0.019999999799068746</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999596811868</v>
+        <v>-0.0075494879613238197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.029093583205520801</v>
+        <v>-0.0059999998313680081</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.00599999964864395</v>
+        <v>-0.0059999998307844749</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.01188937937354595</v>
+        <v>-0.0044999998344543712</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999996470039285</v>
+        <v>0.00095913507567235712</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999996413528933</v>
+        <v>-0.0059999998304869351</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999612869239</v>
+        <v>-0.011999999816010742</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999996382931187</v>
+        <v>-0.0059999998308395419</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999996370465603</v>
+        <v>-0.0059999998314292924</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999996354278551</v>
+        <v>0.035315595160493096</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999996216807432</v>
+        <v>-0.0089999998253640356</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999996611509481</v>
+        <v>-0.0089999998326528718</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999996540388594</v>
+        <v>-0.0089999998311274254</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.04444962366816263</v>
+        <v>-0.0089999998308805118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999996521226144</v>
+        <v>-0.0089999998307099816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999996597285303</v>
+        <v>-0.0608334481480588</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999507543961</v>
+        <v>-0.041999999746789918</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.04199999950490696</v>
+        <v>-0.041999999745350181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999996653310461</v>
+        <v>-0.005999999832582148</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999996643522735</v>
+        <v>-0.0059999998316726533</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999996606672212</v>
+        <v>-0.0059999998280071409</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.025351340839039338</v>
+        <v>-0.011999999810777595</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999593739659</v>
+        <v>-0.019999999790099032</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999612717474</v>
+        <v>-0.014999999800336283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999585411544</v>
+        <v>-0.02099999978549949</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.005999999652043897</v>
+        <v>-0.0059999998216886397</v>
       </c>
     </row>
   </sheetData>
